--- a/data/fiche_comm/adm0_fiche_comm.xlsx
+++ b/data/fiche_comm/adm0_fiche_comm.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_CHIPC_dataprocessing\data\fiche_comm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D954429A-844C-4D08-BBD7-1A0650D2577E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC3D053-C67C-408A-95C4-9AD19380AC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-1545" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adm0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adm0!$A$1:$AN$533</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adm0!$A$1:$AN$534</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="0">adm0!$C$3:$C$321</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="125">
   <si>
     <t>adm0_pcod3</t>
   </si>
@@ -412,6 +412,9 @@
   <si>
     <t>draft figures - to be updated with finalized figures</t>
   </si>
+  <si>
+    <t xml:space="preserve">Projected </t>
+  </si>
 </sst>
 </file>
 
@@ -495,7 +498,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -541,6 +544,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2EFDA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -758,6 +767,9 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -998,8 +1010,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="U330" sqref="U330"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P539" sqref="P539"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1017,10 +1029,10 @@
     <col min="11" max="11" width="18" style="2" customWidth="1"/>
     <col min="12" max="12" width="14.140625" style="2" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="12.5703125" style="4" customWidth="1"/>
     <col min="19" max="19" width="68.5703125" style="4" customWidth="1"/>
     <col min="20" max="20" width="37.28515625" style="4" customWidth="1"/>
@@ -1143,7 +1155,7 @@
       </c>
       <c r="S2" s="1"/>
       <c r="U2" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:40" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4026,7 +4038,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>52</v>
       </c>
@@ -7289,7 +7301,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>52</v>
       </c>
@@ -7343,7 +7355,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>52</v>
       </c>
@@ -8987,7 +8999,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
         <v>52</v>
       </c>
@@ -9035,7 +9047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="159" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
         <v>52</v>
       </c>
@@ -10869,7 +10881,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="192" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
         <v>52</v>
       </c>
@@ -10923,7 +10935,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="193" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
         <v>52</v>
       </c>
@@ -12914,7 +12926,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="226" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>52</v>
       </c>
@@ -12977,7 +12989,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="227" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
         <v>52</v>
       </c>
@@ -15048,7 +15060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="260" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
         <v>52</v>
       </c>
@@ -15110,7 +15122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="261" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
         <v>52</v>
       </c>
@@ -17141,7 +17153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="294" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:40" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
         <v>52</v>
       </c>
@@ -17203,7 +17215,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="295" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:40" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
         <v>52</v>
       </c>
@@ -18251,7 +18263,7 @@
         <v>73</v>
       </c>
       <c r="U311" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="312" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -19311,7 +19323,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="329" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
         <v>52</v>
       </c>
@@ -19373,7 +19385,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="330" spans="1:40" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:40" s="58" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="57" t="s">
         <v>52</v>
       </c>
@@ -19438,7 +19450,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="331" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="57" t="s">
         <v>52</v>
       </c>
@@ -20437,7 +20449,7 @@
         <v>73</v>
       </c>
       <c r="U346" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="347" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -20493,7 +20505,7 @@
         <v>74</v>
       </c>
       <c r="U347" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="348" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -21612,7 +21624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="366" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="27" t="s">
         <v>52</v>
       </c>
@@ -21674,7 +21686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="367" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="27" t="s">
         <v>52</v>
       </c>
@@ -22772,7 +22784,7 @@
         <v>74</v>
       </c>
       <c r="U384" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="V384" s="8"/>
       <c r="W384" s="8"/>
@@ -22847,8 +22859,8 @@
       <c r="R385" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="U385" s="66" t="s">
-        <v>63</v>
+      <c r="U385" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="386" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -23841,7 +23853,7 @@
       <c r="AM400" s="8"/>
       <c r="AN400" s="8"/>
     </row>
-    <row r="401" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
         <v>52</v>
       </c>
@@ -24975,7 +24987,7 @@
         <v>75</v>
       </c>
       <c r="U418" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="419" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -25034,7 +25046,7 @@
         <v>75</v>
       </c>
       <c r="U419" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="420" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -26073,7 +26085,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="436" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>52</v>
       </c>
@@ -26154,7 +26166,7 @@
       <c r="AM436" s="8"/>
       <c r="AN436" s="8"/>
     </row>
-    <row r="437" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
         <v>52</v>
       </c>
@@ -26777,7 +26789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="447" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
         <v>52</v>
       </c>
@@ -27199,7 +27211,7 @@
         <v>75</v>
       </c>
       <c r="U453" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="454" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -27636,7 +27648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="461" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>52</v>
       </c>
@@ -28126,7 +28138,7 @@
         <v>75</v>
       </c>
       <c r="U468" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="469" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28185,7 +28197,7 @@
         <v>75</v>
       </c>
       <c r="U469" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="470" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -28244,7 +28256,7 @@
         <v>75</v>
       </c>
       <c r="U470" s="4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="471" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -29723,66 +29735,66 @@
         <v>63</v>
       </c>
     </row>
-    <row r="495" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="14" t="s">
+    <row r="495" spans="1:21" s="78" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B495" s="14">
+      <c r="B495" s="78">
         <v>49</v>
       </c>
-      <c r="C495" s="14" t="s">
+      <c r="C495" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D495" s="14">
-        <v>2</v>
-      </c>
-      <c r="E495" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F495" s="14">
-        <v>2020</v>
-      </c>
-      <c r="G495" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H495" s="14">
-        <v>2</v>
-      </c>
-      <c r="I495" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="J495" s="14">
+      <c r="D495" s="78">
+        <v>1</v>
+      </c>
+      <c r="E495" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F495" s="78">
+        <v>2019</v>
+      </c>
+      <c r="G495" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H495" s="78">
+        <v>2</v>
+      </c>
+      <c r="I495" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="J495" s="78">
         <v>2020</v>
       </c>
       <c r="K495" s="16">
         <v>4596014</v>
       </c>
       <c r="L495" s="16">
-        <v>1619209</v>
+        <v>1251017</v>
       </c>
       <c r="M495" s="16">
-        <v>605236</v>
+        <v>1729594</v>
       </c>
       <c r="N495" s="16">
-        <v>1608758</v>
+        <v>1241886</v>
       </c>
       <c r="O495" s="16">
-        <v>753979</v>
+        <v>373418</v>
       </c>
       <c r="P495" s="16">
         <v>0</v>
       </c>
       <c r="Q495" s="16">
-        <v>2362737</v>
-      </c>
-      <c r="R495" s="17" t="s">
+        <v>1615304</v>
+      </c>
+      <c r="R495" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="S495" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="T495" s="42"/>
-      <c r="U495" s="14" t="s">
+      <c r="S495" s="78" t="s">
+        <v>79</v>
+      </c>
+      <c r="T495" s="79"/>
+      <c r="U495" s="78" t="s">
         <v>63</v>
       </c>
     </row>
@@ -30347,7 +30359,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="505" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
         <v>47</v>
       </c>
@@ -30388,10 +30400,10 @@
         <v>721234.08150310267</v>
       </c>
       <c r="N505" s="16">
-        <v>215667.45092818316</v>
+        <v>216833.61382985231</v>
       </c>
       <c r="O505" s="16">
-        <v>1166.1629016691625</v>
+        <v>0</v>
       </c>
       <c r="P505" s="16">
         <v>0</v>
@@ -30539,7 +30551,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="508" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
         <v>52</v>
       </c>
@@ -31348,7 +31360,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="521" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
         <v>47</v>
       </c>
@@ -31383,10 +31395,10 @@
         <v>4271196.9999999991</v>
       </c>
       <c r="L521" s="16">
-        <v>2885919.4838004126</v>
+        <v>2895722</v>
       </c>
       <c r="M521" s="16">
-        <v>901126.89530704613</v>
+        <v>891325</v>
       </c>
       <c r="N521" s="16">
         <v>462342.39764939342</v>
@@ -31543,7 +31555,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="524" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
         <v>52</v>
       </c>
@@ -31981,60 +31993,65 @@
         <v>63</v>
       </c>
     </row>
-    <row r="531" spans="1:21" s="56" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="56" t="s">
+    <row r="531" spans="1:21" s="78" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B531" s="56">
+      <c r="B531" s="78">
         <v>49</v>
       </c>
-      <c r="C531" s="56" t="s">
+      <c r="C531" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D531" s="14">
-        <v>2</v>
-      </c>
-      <c r="E531" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="F531" s="69">
+      <c r="D531" s="78">
+        <v>1</v>
+      </c>
+      <c r="E531" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="F531" s="78">
+        <v>2020</v>
+      </c>
+      <c r="G531" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="H531" s="78">
+        <v>2</v>
+      </c>
+      <c r="I531" s="78" t="s">
+        <v>115</v>
+      </c>
+      <c r="J531" s="80">
         <v>2021</v>
       </c>
-      <c r="G531" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="H531" s="56">
-        <v>2</v>
-      </c>
-      <c r="I531" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="J531" s="69">
-        <v>2021</v>
-      </c>
-      <c r="K531" s="73"/>
-      <c r="L531" s="74"/>
-      <c r="M531" s="74"/>
-      <c r="N531" s="75">
-        <v>1657213</v>
-      </c>
-      <c r="O531" s="76">
-        <v>632525</v>
-      </c>
-      <c r="P531" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q531" s="25">
-        <f>SUM(N531:O531)</f>
-        <v>2289738</v>
-      </c>
-      <c r="R531" s="56" t="s">
+      <c r="K531" s="47">
+        <v>4744003</v>
+      </c>
+      <c r="L531" s="48">
+        <v>1058613</v>
+      </c>
+      <c r="M531" s="48">
+        <v>1756781</v>
+      </c>
+      <c r="N531" s="48">
+        <v>1520732</v>
+      </c>
+      <c r="O531" s="48">
+        <v>407877</v>
+      </c>
+      <c r="P531" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q531" s="16">
+        <v>1928609</v>
+      </c>
+      <c r="R531" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="S531" s="56" t="s">
+      <c r="S531" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="U531" s="56" t="s">
+      <c r="U531" s="78" t="s">
         <v>63</v>
       </c>
     </row>
@@ -32100,7 +32117,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="534" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q534" s="2">
+        <f>Q431+Q433+Q435+Q443+Q446+Q439</f>
+        <v>9117673.2899999991</v>
+      </c>
+    </row>
     <row r="535" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="536" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="537" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32564,14 +32586,19 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AN533" xr:uid="{87B19FBF-703B-4AE1-B789-C8C80B153D5D}">
+  <autoFilter ref="A1:AN534" xr:uid="{39ABAFED-046F-4AC9-B50A-A3F0F0F18739}">
     <filterColumn colId="0">
       <filters>
-        <filter val="NGA"/>
+        <filter val="MRT"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2021"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="U1:U532 U534:U1048576">
+  <conditionalFormatting sqref="U534:U1048576 U1:U532">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>

--- a/data/fiche_comm/adm0_fiche_comm.xlsx
+++ b/data/fiche_comm/adm0_fiche_comm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_CHIPC_dataprocessing\data\fiche_comm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC3D053-C67C-408A-95C4-9AD19380AC0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B5F967-3EA5-4C33-B990-14D88F82D11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adm0" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="126">
   <si>
     <t>adm0_pcod3</t>
   </si>
@@ -410,10 +410,13 @@
     <t>CH-SN mars 21</t>
   </si>
   <si>
-    <t>draft figures - to be updated with finalized figures</t>
+    <t xml:space="preserve">Projected </t>
   </si>
   <si>
-    <t xml:space="preserve">Projected </t>
+    <t>CAR-Projection Update April 2021-Pop Table</t>
+  </si>
+  <si>
+    <t>Tableur 4-CH-GN-RQQ 05052021</t>
   </si>
 </sst>
 </file>
@@ -604,7 +607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -770,6 +773,11 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1010,8 +1018,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P539" sqref="P539"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S543" sqref="S543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -3420,7 +3428,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>37</v>
       </c>
@@ -4940,7 +4948,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>37</v>
       </c>
@@ -4988,7 +4996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>37</v>
       </c>
@@ -6545,7 +6553,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>37</v>
       </c>
@@ -6599,7 +6607,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>37</v>
       </c>
@@ -8327,7 +8335,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>37</v>
       </c>
@@ -8375,7 +8383,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>37</v>
       </c>
@@ -10069,7 +10077,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>37</v>
       </c>
@@ -10123,7 +10131,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>37</v>
       </c>
@@ -12052,7 +12060,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>37</v>
       </c>
@@ -12111,7 +12119,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>37</v>
       </c>
@@ -14192,7 +14200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>37</v>
       </c>
@@ -14254,7 +14262,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>37</v>
       </c>
@@ -16300,7 +16308,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>37</v>
       </c>
@@ -16362,7 +16370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>37</v>
       </c>
@@ -18514,7 +18522,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>37</v>
       </c>
@@ -18576,7 +18584,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="27" t="s">
         <v>37</v>
       </c>
@@ -20756,7 +20764,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="352" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="27" t="s">
         <v>37</v>
       </c>
@@ -20818,7 +20826,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="27" t="s">
         <v>37</v>
       </c>
@@ -23049,7 +23057,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="389" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>37</v>
       </c>
@@ -25297,7 +25305,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="424" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>37</v>
       </c>
@@ -25359,7 +25367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="425" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>37</v>
       </c>
@@ -27958,7 +27966,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>37</v>
       </c>
@@ -28020,7 +28028,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>37</v>
       </c>
@@ -29755,7 +29763,7 @@
         <v>2019</v>
       </c>
       <c r="G495" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H495" s="78">
         <v>2</v>
@@ -30111,65 +30119,65 @@
         <v>63</v>
       </c>
     </row>
-    <row r="501" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="4" t="s">
+    <row r="501" spans="1:21" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B501" s="44">
+      <c r="B501" s="81">
         <v>106</v>
       </c>
-      <c r="C501" s="45" t="s">
+      <c r="C501" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D501" s="4">
-        <v>2</v>
-      </c>
-      <c r="E501" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F501" s="4">
+      <c r="D501" s="56">
+        <v>2</v>
+      </c>
+      <c r="E501" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F501" s="56">
         <v>2021</v>
       </c>
-      <c r="G501" s="4" t="s">
+      <c r="G501" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H501" s="4">
-        <v>2</v>
-      </c>
-      <c r="I501" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J501" s="4">
+      <c r="H501" s="56">
+        <v>2</v>
+      </c>
+      <c r="I501" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="J501" s="56">
         <v>2021</v>
       </c>
-      <c r="K501" s="16">
-        <v>0</v>
-      </c>
-      <c r="L501" s="16">
-        <v>0</v>
-      </c>
-      <c r="M501" s="16">
-        <v>0</v>
-      </c>
-      <c r="N501" s="16">
-        <v>0</v>
-      </c>
-      <c r="O501" s="16">
-        <v>0</v>
-      </c>
-      <c r="P501" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q501" s="16">
-        <v>0</v>
-      </c>
-      <c r="R501" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S501" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="U501" s="4" t="s">
+      <c r="K501" s="68">
+        <v>11115573</v>
+      </c>
+      <c r="L501" s="25">
+        <v>8235003.6000000015</v>
+      </c>
+      <c r="M501" s="25">
+        <v>2426627.8200000003</v>
+      </c>
+      <c r="N501" s="25">
+        <v>453941.58000000013</v>
+      </c>
+      <c r="O501" s="25">
+        <v>0</v>
+      </c>
+      <c r="P501" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q501" s="25">
+        <v>453941.58000000013</v>
+      </c>
+      <c r="R501" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="S501" s="83" t="s">
+        <v>125</v>
+      </c>
+      <c r="U501" s="56" t="s">
         <v>63</v>
       </c>
     </row>
@@ -30359,7 +30367,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="505" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
         <v>47</v>
       </c>
@@ -31112,65 +31120,65 @@
         <v>63</v>
       </c>
     </row>
-    <row r="517" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="4" t="s">
+    <row r="517" spans="1:21" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B517" s="44">
+      <c r="B517" s="81">
         <v>106</v>
       </c>
-      <c r="C517" s="45" t="s">
+      <c r="C517" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="D517" s="4">
-        <v>2</v>
-      </c>
-      <c r="E517" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F517" s="4">
+      <c r="D517" s="56">
+        <v>2</v>
+      </c>
+      <c r="E517" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F517" s="56">
         <v>2021</v>
       </c>
-      <c r="G517" s="4" t="s">
+      <c r="G517" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H517" s="4">
+      <c r="H517" s="56">
         <v>3</v>
       </c>
-      <c r="I517" s="4" t="s">
+      <c r="I517" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="J517" s="4">
+      <c r="J517" s="56">
         <v>2021</v>
       </c>
-      <c r="K517" s="16">
+      <c r="K517" s="25">
         <v>11115573</v>
       </c>
-      <c r="L517" s="16">
-        <v>8262248.0599999996</v>
-      </c>
-      <c r="M517" s="16">
-        <v>2169692.1600000001</v>
-      </c>
-      <c r="N517" s="16">
-        <v>683632.78000000014</v>
-      </c>
-      <c r="O517" s="16">
-        <v>0</v>
-      </c>
-      <c r="P517" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q517" s="16">
-        <v>683632.78000000014</v>
-      </c>
-      <c r="R517" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="S517" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="U517" s="4" t="s">
+      <c r="L517" s="25">
+        <v>8124709.3299999991</v>
+      </c>
+      <c r="M517" s="25">
+        <v>2572410.3000000007</v>
+      </c>
+      <c r="N517" s="25">
+        <v>418453.36999999994</v>
+      </c>
+      <c r="O517" s="25">
+        <v>0</v>
+      </c>
+      <c r="P517" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q517" s="25">
+        <v>418453.36999999994</v>
+      </c>
+      <c r="R517" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="S517" s="56" t="s">
+        <v>125</v>
+      </c>
+      <c r="U517" s="56" t="s">
         <v>63</v>
       </c>
     </row>
@@ -31360,7 +31368,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="521" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
         <v>47</v>
       </c>
@@ -32013,7 +32021,7 @@
         <v>2020</v>
       </c>
       <c r="G531" s="78" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H531" s="78">
         <v>2</v>
@@ -32048,8 +32056,8 @@
       <c r="R531" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="S531" s="78" t="s">
-        <v>123</v>
+      <c r="S531" s="14" t="s">
+        <v>79</v>
       </c>
       <c r="U531" s="78" t="s">
         <v>63</v>
@@ -32091,27 +32099,32 @@
       <c r="J533" s="69">
         <v>2021</v>
       </c>
-      <c r="K533" s="73"/>
-      <c r="L533" s="74"/>
-      <c r="M533" s="74"/>
+      <c r="K533" s="73">
+        <v>4879385</v>
+      </c>
+      <c r="L533" s="74">
+        <v>998450</v>
+      </c>
+      <c r="M533" s="74">
+        <v>1591200</v>
+      </c>
       <c r="N533" s="75">
-        <v>1657213</v>
+        <v>1657212</v>
       </c>
       <c r="O533" s="76">
-        <v>632525</v>
-      </c>
-      <c r="P533" s="25">
+        <v>632524</v>
+      </c>
+      <c r="P533" s="16">
         <v>0</v>
       </c>
       <c r="Q533" s="25">
-        <f>SUM(N533:O533)</f>
-        <v>2289738</v>
+        <v>2289736</v>
       </c>
       <c r="R533" s="56" t="s">
         <v>26</v>
       </c>
       <c r="S533" s="56" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="U533" s="56" t="s">
         <v>63</v>
@@ -32586,15 +32599,10 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AN534" xr:uid="{39ABAFED-046F-4AC9-B50A-A3F0F0F18739}">
+  <autoFilter ref="A1:AN534" xr:uid="{4A94B884-F025-45F8-8A74-6143E218625F}">
     <filterColumn colId="0">
       <filters>
-        <filter val="MRT"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2021"/>
+        <filter val="GIN"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/fiche_comm/adm0_fiche_comm.xlsx
+++ b/data/fiche_comm/adm0_fiche_comm.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RBD_CHIPC_dataprocessing\data\fiche_comm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B5F967-3EA5-4C33-B990-14D88F82D11B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EB591D-682C-411D-881E-A32BF349B922}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="adm0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">adm0!$A$1:$AN$534</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4280" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4281" uniqueCount="126">
   <si>
     <t>adm0_pcod3</t>
   </si>
@@ -423,33 +424,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-  </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -471,37 +450,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF4A5B73"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +478,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor rgb="FFE2EFDA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,18 +490,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE2EFDA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -587,200 +525,136 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1018,15 +892,15 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AN996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S543" sqref="S543"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K531" sqref="K531:Q531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="45" style="4" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="4" customWidth="1"/>
     <col min="5" max="5" width="37" style="4" customWidth="1"/>
     <col min="6" max="6" width="22.140625" style="4" customWidth="1"/>
@@ -2159,7 +2033,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
@@ -2207,7 +2081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>37</v>
       </c>
@@ -3428,7 +3302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>37</v>
       </c>
@@ -4948,7 +4822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>37</v>
       </c>
@@ -4996,7 +4870,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>37</v>
       </c>
@@ -6553,7 +6427,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>37</v>
       </c>
@@ -6607,7 +6481,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>37</v>
       </c>
@@ -8335,7 +8209,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>37</v>
       </c>
@@ -8383,7 +8257,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="145" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>37</v>
       </c>
@@ -10077,7 +9951,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="178" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>37</v>
       </c>
@@ -10131,7 +10005,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
         <v>37</v>
       </c>
@@ -12060,7 +11934,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
         <v>37</v>
       </c>
@@ -12119,7 +11993,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="213" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
         <v>37</v>
       </c>
@@ -14200,7 +14074,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
         <v>37</v>
       </c>
@@ -14262,7 +14136,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>37</v>
       </c>
@@ -16308,7 +16182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="280" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>37</v>
       </c>
@@ -16370,7 +16244,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="281" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>37</v>
       </c>
@@ -18043,7 +17917,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="308" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="28" t="s">
         <v>24</v>
       </c>
@@ -18522,7 +18396,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="316" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
         <v>37</v>
       </c>
@@ -18584,7 +18458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="317" spans="1:21" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="27" t="s">
         <v>37</v>
       </c>
@@ -19266,35 +19140,35 @@
         <v>71</v>
       </c>
     </row>
-    <row r="328" spans="1:40" s="56" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="55" t="s">
+    <row r="328" spans="1:40" s="46" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="B328" s="55">
+      <c r="B328" s="45">
         <v>181</v>
       </c>
-      <c r="C328" s="55" t="s">
+      <c r="C328" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D328" s="55">
-        <v>1</v>
-      </c>
-      <c r="E328" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="F328" s="55">
+      <c r="D328" s="45">
+        <v>1</v>
+      </c>
+      <c r="E328" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F328" s="45">
         <v>2019</v>
       </c>
-      <c r="G328" s="55" t="s">
+      <c r="G328" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H328" s="55">
-        <v>1</v>
-      </c>
-      <c r="I328" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="J328" s="55">
+      <c r="H328" s="45">
+        <v>1</v>
+      </c>
+      <c r="I328" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="J328" s="45">
         <v>2019</v>
       </c>
       <c r="K328" s="25">
@@ -19318,16 +19192,16 @@
       <c r="Q328" s="25">
         <v>1462387.43</v>
       </c>
-      <c r="R328" s="54" t="s">
+      <c r="R328" s="44" t="s">
         <v>20</v>
       </c>
       <c r="S328" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T328" s="56" t="s">
+      <c r="T328" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="U328" s="56" t="s">
+      <c r="U328" s="46" t="s">
         <v>63</v>
       </c>
     </row>
@@ -19393,73 +19267,73 @@
         <v>71</v>
       </c>
     </row>
-    <row r="330" spans="1:40" s="58" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="57" t="s">
+    <row r="330" spans="1:40" s="48" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="B330" s="57">
+      <c r="B330" s="47">
         <v>182</v>
       </c>
-      <c r="C330" s="57" t="s">
+      <c r="C330" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D330" s="57">
-        <v>1</v>
-      </c>
-      <c r="E330" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="F330" s="57">
+      <c r="D330" s="47">
+        <v>1</v>
+      </c>
+      <c r="E330" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F330" s="47">
         <v>2019</v>
       </c>
-      <c r="G330" s="57" t="s">
+      <c r="G330" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="H330" s="57">
-        <v>1</v>
-      </c>
-      <c r="I330" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="J330" s="57">
+      <c r="H330" s="47">
+        <v>1</v>
+      </c>
+      <c r="I330" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="J330" s="47">
         <v>2019</v>
       </c>
-      <c r="K330" s="59">
+      <c r="K330" s="49">
         <v>104041690</v>
       </c>
-      <c r="L330" s="59">
+      <c r="L330" s="49">
         <v>84766920.299999997</v>
       </c>
-      <c r="M330" s="59">
+      <c r="M330" s="49">
         <v>14988536.949999999</v>
       </c>
-      <c r="N330" s="59">
+      <c r="N330" s="49">
         <v>3888732.75</v>
       </c>
-      <c r="O330" s="59">
+      <c r="O330" s="49">
         <v>395679</v>
       </c>
-      <c r="P330" s="59">
-        <v>0</v>
-      </c>
-      <c r="Q330" s="59">
+      <c r="P330" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q330" s="49">
         <v>4284411.75</v>
       </c>
       <c r="R330" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S330" s="60" t="s">
+      <c r="S330" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="T330" s="58" t="s">
+      <c r="T330" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="U330" s="58" t="s">
+      <c r="U330" s="48" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="331" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="57" t="s">
+      <c r="A331" s="47" t="s">
         <v>52</v>
       </c>
       <c r="B331" s="4">
@@ -19516,7 +19390,7 @@
       <c r="S331" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="T331" s="58" t="s">
+      <c r="T331" s="48" t="s">
         <v>119</v>
       </c>
       <c r="U331" s="14" t="s">
@@ -20764,7 +20638,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="352" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="27" t="s">
         <v>37</v>
       </c>
@@ -20826,7 +20700,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="353" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="27" t="s">
         <v>37</v>
       </c>
@@ -22191,65 +22065,65 @@
         <v>63</v>
       </c>
     </row>
-    <row r="375" spans="1:40" s="66" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="63" t="s">
+    <row r="375" spans="1:40" s="56" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B375" s="63">
+      <c r="B375" s="53">
         <v>243</v>
       </c>
-      <c r="C375" s="63" t="s">
+      <c r="C375" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="D375" s="63">
-        <v>2</v>
-      </c>
-      <c r="E375" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="F375" s="63">
+      <c r="D375" s="53">
+        <v>2</v>
+      </c>
+      <c r="E375" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F375" s="53">
         <v>2019</v>
       </c>
-      <c r="G375" s="63" t="s">
+      <c r="G375" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H375" s="63">
+      <c r="H375" s="53">
         <v>3</v>
       </c>
-      <c r="I375" s="63" t="s">
+      <c r="I375" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="J375" s="63">
+      <c r="J375" s="53">
         <v>2019</v>
       </c>
-      <c r="K375" s="64">
+      <c r="K375" s="54">
         <v>5575100</v>
       </c>
-      <c r="L375" s="64">
+      <c r="L375" s="54">
         <v>5162800</v>
       </c>
-      <c r="M375" s="64">
+      <c r="M375" s="54">
         <v>412300</v>
       </c>
-      <c r="N375" s="64">
-        <v>0</v>
-      </c>
-      <c r="O375" s="64">
-        <v>0</v>
-      </c>
-      <c r="P375" s="64">
-        <v>0</v>
-      </c>
-      <c r="Q375" s="64">
-        <v>0</v>
-      </c>
-      <c r="R375" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="S375" s="66" t="s">
+      <c r="N375" s="54">
+        <v>0</v>
+      </c>
+      <c r="O375" s="54">
+        <v>0</v>
+      </c>
+      <c r="P375" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q375" s="54">
+        <v>0</v>
+      </c>
+      <c r="R375" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="S375" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="U375" s="66" t="s">
+      <c r="U375" s="56" t="s">
         <v>63</v>
       </c>
     </row>
@@ -22502,7 +22376,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="380" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="14" t="s">
         <v>24</v>
       </c>
@@ -22559,59 +22433,59 @@
         <v>63</v>
       </c>
     </row>
-    <row r="381" spans="1:40" s="66" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="66" t="s">
+    <row r="381" spans="1:40" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="B381" s="66">
+      <c r="B381" s="56">
         <v>49</v>
       </c>
-      <c r="C381" s="66" t="s">
+      <c r="C381" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="D381" s="66">
-        <v>2</v>
-      </c>
-      <c r="E381" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F381" s="66">
+      <c r="D381" s="56">
+        <v>2</v>
+      </c>
+      <c r="E381" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F381" s="56">
         <v>2014</v>
       </c>
-      <c r="G381" s="66" t="s">
+      <c r="G381" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H381" s="66">
+      <c r="H381" s="56">
         <v>3</v>
       </c>
-      <c r="I381" s="66" t="s">
+      <c r="I381" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="J381" s="66">
+      <c r="J381" s="56">
         <v>2014</v>
       </c>
-      <c r="K381" s="67">
+      <c r="K381" s="57">
         <v>3743000</v>
       </c>
-      <c r="L381" s="67"/>
-      <c r="M381" s="67"/>
-      <c r="N381" s="67">
+      <c r="L381" s="57"/>
+      <c r="M381" s="57"/>
+      <c r="N381" s="57">
         <v>960000</v>
       </c>
-      <c r="O381" s="67">
+      <c r="O381" s="57">
         <v>710000</v>
       </c>
-      <c r="P381" s="67"/>
-      <c r="Q381" s="67">
+      <c r="P381" s="57"/>
+      <c r="Q381" s="57">
         <v>1670000</v>
       </c>
-      <c r="R381" s="65" t="s">
+      <c r="R381" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="S381" s="66" t="s">
+      <c r="S381" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="U381" s="66" t="s">
+      <c r="U381" s="56" t="s">
         <v>71</v>
       </c>
     </row>
@@ -22814,57 +22688,57 @@
       <c r="AM384" s="8"/>
       <c r="AN384" s="8"/>
     </row>
-    <row r="385" spans="1:40" s="66" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="66" t="s">
+    <row r="385" spans="1:40" s="56" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B385" s="66">
+      <c r="B385" s="56">
         <v>45</v>
       </c>
-      <c r="C385" s="66" t="s">
+      <c r="C385" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="D385" s="66">
-        <v>2</v>
-      </c>
-      <c r="E385" s="66" t="s">
-        <v>115</v>
-      </c>
-      <c r="F385" s="66">
+      <c r="D385" s="56">
+        <v>2</v>
+      </c>
+      <c r="E385" s="56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F385" s="56">
         <v>2016</v>
       </c>
-      <c r="G385" s="66" t="s">
+      <c r="G385" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="H385" s="66">
+      <c r="H385" s="56">
         <v>3</v>
       </c>
-      <c r="I385" s="66" t="s">
+      <c r="I385" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="J385" s="66">
+      <c r="J385" s="56">
         <v>2016</v>
       </c>
-      <c r="K385" s="67"/>
-      <c r="L385" s="67">
+      <c r="K385" s="57"/>
+      <c r="L385" s="57">
         <v>1955715</v>
       </c>
-      <c r="M385" s="67">
+      <c r="M385" s="57">
         <v>4874621</v>
       </c>
-      <c r="N385" s="67">
+      <c r="N385" s="57">
         <v>2176271</v>
       </c>
-      <c r="O385" s="67">
+      <c r="O385" s="57">
         <v>288928</v>
       </c>
-      <c r="P385" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q385" s="67">
+      <c r="P385" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q385" s="57">
         <v>2465199</v>
       </c>
-      <c r="R385" s="66" t="s">
+      <c r="R385" s="56" t="s">
         <v>74</v>
       </c>
       <c r="U385" s="4" t="s">
@@ -23057,7 +22931,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="389" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
         <v>37</v>
       </c>
@@ -23734,13 +23608,13 @@
       <c r="F399" s="31">
         <v>2019</v>
       </c>
-      <c r="G399" s="61" t="s">
+      <c r="G399" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H399" s="61">
+      <c r="H399" s="51">
         <v>3</v>
       </c>
-      <c r="I399" s="61" t="s">
+      <c r="I399" s="51" t="s">
         <v>116</v>
       </c>
       <c r="J399" s="31">
@@ -23767,13 +23641,13 @@
       <c r="Q399" s="2">
         <v>1950021.7900000005</v>
       </c>
-      <c r="R399" s="62" t="s">
-        <v>20</v>
-      </c>
-      <c r="S399" s="62" t="s">
+      <c r="R399" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="S399" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="T399" s="56" t="s">
+      <c r="T399" s="46" t="s">
         <v>120</v>
       </c>
       <c r="U399" s="4" t="s">
@@ -24705,7 +24579,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="414" spans="1:40" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="14" t="s">
         <v>24</v>
       </c>
@@ -24762,7 +24636,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="415" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="14" t="s">
         <v>24</v>
       </c>
@@ -25305,7 +25179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="424" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
         <v>37</v>
       </c>
@@ -25367,7 +25241,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="425" spans="1:40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:40" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>37</v>
       </c>
@@ -27048,7 +26922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="451" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="40" t="s">
         <v>24</v>
       </c>
@@ -27966,7 +27840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="466" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
         <v>37</v>
       </c>
@@ -28028,7 +27902,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="467" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:21" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
         <v>37</v>
       </c>
@@ -28766,7 +28640,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="479" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="28" t="s">
         <v>24</v>
       </c>
@@ -28823,7 +28697,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="480" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="14" t="s">
         <v>24</v>
       </c>
@@ -28876,7 +28750,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="481" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="14" t="s">
         <v>24</v>
       </c>
@@ -28929,7 +28803,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="482" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="14" t="s">
         <v>24</v>
       </c>
@@ -28992,7 +28866,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="483" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="14" t="s">
         <v>24</v>
       </c>
@@ -29055,7 +28929,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="484" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="14" t="s">
         <v>24</v>
       </c>
@@ -29118,7 +28992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="485" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="14" t="s">
         <v>24</v>
       </c>
@@ -29181,7 +29055,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="486" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="14" t="s">
         <v>24</v>
       </c>
@@ -29244,7 +29118,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="487" spans="1:21" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="14" t="s">
         <v>24</v>
       </c>
@@ -29306,7 +29180,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="488" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="14" t="s">
         <v>24</v>
       </c>
@@ -29368,7 +29242,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="489" spans="1:21" s="14" customFormat="1" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:21" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="14" t="s">
         <v>24</v>
       </c>
@@ -29430,7 +29304,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="490" spans="1:21" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="14" t="s">
         <v>24</v>
       </c>
@@ -29492,7 +29366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="491" spans="1:21" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="14" t="s">
         <v>24</v>
       </c>
@@ -29554,7 +29428,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="492" spans="1:21" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="14" t="s">
         <v>24</v>
       </c>
@@ -29616,7 +29490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="493" spans="1:21" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="14" t="s">
         <v>24</v>
       </c>
@@ -29647,19 +29521,19 @@
       <c r="J493" s="14">
         <v>2020</v>
       </c>
-      <c r="K493" s="47">
+      <c r="K493" s="16">
         <v>4744003</v>
       </c>
-      <c r="L493" s="48">
+      <c r="L493" s="16">
         <v>1058613</v>
       </c>
-      <c r="M493" s="48">
+      <c r="M493" s="16">
         <v>1756781</v>
       </c>
-      <c r="N493" s="48">
+      <c r="N493" s="16">
         <v>1520732</v>
       </c>
-      <c r="O493" s="48">
+      <c r="O493" s="16">
         <v>407877</v>
       </c>
       <c r="P493" s="16">
@@ -29678,7 +29552,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="494" spans="1:21" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:21" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="14" t="s">
         <v>24</v>
       </c>
@@ -29743,35 +29617,35 @@
         <v>63</v>
       </c>
     </row>
-    <row r="495" spans="1:21" s="78" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="78" t="s">
+    <row r="495" spans="1:21" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B495" s="78">
+      <c r="B495" s="14">
         <v>49</v>
       </c>
-      <c r="C495" s="78" t="s">
+      <c r="C495" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D495" s="78">
-        <v>1</v>
-      </c>
-      <c r="E495" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="F495" s="78">
+      <c r="D495" s="14">
+        <v>1</v>
+      </c>
+      <c r="E495" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F495" s="14">
         <v>2019</v>
       </c>
-      <c r="G495" s="78" t="s">
+      <c r="G495" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H495" s="78">
-        <v>2</v>
-      </c>
-      <c r="I495" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="J495" s="78">
+      <c r="H495" s="14">
+        <v>2</v>
+      </c>
+      <c r="I495" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J495" s="14">
         <v>2020</v>
       </c>
       <c r="K495" s="16">
@@ -29795,111 +29669,111 @@
       <c r="Q495" s="16">
         <v>1615304</v>
       </c>
-      <c r="R495" s="78" t="s">
+      <c r="R495" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="S495" s="78" t="s">
+      <c r="S495" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="T495" s="79"/>
-      <c r="U495" s="78" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="496" spans="1:21" s="56" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="69" t="s">
+      <c r="T495" s="59"/>
+      <c r="U495" s="58" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="496" spans="1:21" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B496" s="69">
+      <c r="B496" s="14">
         <v>49</v>
       </c>
-      <c r="C496" s="69" t="s">
+      <c r="C496" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D496" s="69">
-        <v>1</v>
-      </c>
-      <c r="E496" s="69" t="s">
-        <v>114</v>
-      </c>
-      <c r="F496" s="69">
+      <c r="D496" s="14">
+        <v>1</v>
+      </c>
+      <c r="E496" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F496" s="14">
         <v>2020</v>
       </c>
-      <c r="G496" s="69" t="s">
+      <c r="G496" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H496" s="69">
+      <c r="H496" s="14">
         <v>3</v>
       </c>
-      <c r="I496" s="69" t="s">
+      <c r="I496" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J496" s="69">
+      <c r="J496" s="14">
         <v>2021</v>
       </c>
-      <c r="K496" s="70">
+      <c r="K496" s="16">
         <v>4842192</v>
       </c>
-      <c r="L496" s="71">
+      <c r="L496" s="16">
         <v>899335</v>
       </c>
-      <c r="M496" s="71">
+      <c r="M496" s="16">
         <v>1628182</v>
       </c>
-      <c r="N496" s="71">
+      <c r="N496" s="16">
         <v>1789989</v>
       </c>
-      <c r="O496" s="71">
+      <c r="O496" s="16">
         <v>524686</v>
       </c>
-      <c r="P496" s="72">
-        <v>0</v>
-      </c>
-      <c r="Q496" s="72">
+      <c r="P496" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q496" s="16">
         <v>2314675</v>
       </c>
-      <c r="R496" s="56" t="s">
+      <c r="R496" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="S496" s="56" t="s">
+      <c r="S496" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="T496" s="56" t="s">
+      <c r="T496" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="U496" s="56" t="s">
+      <c r="U496" s="46" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="497" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="4" t="s">
+      <c r="A497" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B497" s="44">
+      <c r="B497" s="14">
         <v>29</v>
       </c>
-      <c r="C497" s="52" t="s">
+      <c r="C497" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D497" s="4">
-        <v>2</v>
-      </c>
-      <c r="E497" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F497" s="4">
+      <c r="D497" s="14">
+        <v>2</v>
+      </c>
+      <c r="E497" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F497" s="14">
         <v>2021</v>
       </c>
-      <c r="G497" s="4" t="s">
+      <c r="G497" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H497" s="4">
-        <v>2</v>
-      </c>
-      <c r="I497" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J497" s="4">
+      <c r="H497" s="14">
+        <v>2</v>
+      </c>
+      <c r="I497" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J497" s="14">
         <v>2021</v>
       </c>
       <c r="K497" s="16">
@@ -29934,37 +29808,37 @@
       </c>
     </row>
     <row r="498" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="4" t="s">
+      <c r="A498" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B498" s="44">
+      <c r="B498" s="14">
         <v>42</v>
       </c>
-      <c r="C498" s="46" t="s">
+      <c r="C498" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D498" s="4">
-        <v>2</v>
-      </c>
-      <c r="E498" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F498" s="4">
+      <c r="D498" s="14">
+        <v>2</v>
+      </c>
+      <c r="E498" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F498" s="14">
         <v>2021</v>
       </c>
-      <c r="G498" s="4" t="s">
+      <c r="G498" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H498" s="4">
-        <v>2</v>
-      </c>
-      <c r="I498" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J498" s="4">
+      <c r="H498" s="14">
+        <v>2</v>
+      </c>
+      <c r="I498" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J498" s="14">
         <v>2021</v>
       </c>
-      <c r="K498" s="49">
+      <c r="K498" s="16">
         <v>21706163.294491712</v>
       </c>
       <c r="L498" s="16">
@@ -29996,37 +29870,37 @@
       </c>
     </row>
     <row r="499" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="4" t="s">
+      <c r="A499" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B499" s="44">
+      <c r="B499" s="14">
         <v>66</v>
       </c>
-      <c r="C499" s="46" t="s">
+      <c r="C499" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D499" s="4">
-        <v>2</v>
-      </c>
-      <c r="E499" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F499" s="4">
+      <c r="D499" s="14">
+        <v>2</v>
+      </c>
+      <c r="E499" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F499" s="14">
         <v>2021</v>
       </c>
-      <c r="G499" s="4" t="s">
+      <c r="G499" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H499" s="4">
-        <v>2</v>
-      </c>
-      <c r="I499" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J499" s="4">
+      <c r="H499" s="14">
+        <v>2</v>
+      </c>
+      <c r="I499" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J499" s="14">
         <v>2021</v>
       </c>
-      <c r="K499" s="49">
+      <c r="K499" s="16">
         <v>12757736</v>
       </c>
       <c r="L499" s="16">
@@ -30058,37 +29932,37 @@
       </c>
     </row>
     <row r="500" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="4" t="s">
+      <c r="A500" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B500" s="44">
+      <c r="B500" s="14">
         <v>90</v>
       </c>
-      <c r="C500" s="46" t="s">
+      <c r="C500" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D500" s="4">
-        <v>2</v>
-      </c>
-      <c r="E500" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F500" s="4">
+      <c r="D500" s="14">
+        <v>2</v>
+      </c>
+      <c r="E500" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F500" s="14">
         <v>2021</v>
       </c>
-      <c r="G500" s="4" t="s">
+      <c r="G500" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H500" s="4">
-        <v>2</v>
-      </c>
-      <c r="I500" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J500" s="4">
+      <c r="H500" s="14">
+        <v>2</v>
+      </c>
+      <c r="I500" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J500" s="14">
         <v>2021</v>
       </c>
-      <c r="K500" s="49">
+      <c r="K500" s="16">
         <v>2455839</v>
       </c>
       <c r="L500" s="16">
@@ -30119,100 +29993,100 @@
         <v>63</v>
       </c>
     </row>
-    <row r="501" spans="1:21" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="56" t="s">
+    <row r="501" spans="1:21" s="46" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B501" s="81">
+      <c r="B501" s="14">
         <v>106</v>
       </c>
-      <c r="C501" s="82" t="s">
+      <c r="C501" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D501" s="56">
-        <v>2</v>
-      </c>
-      <c r="E501" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="F501" s="56">
+      <c r="D501" s="14">
+        <v>2</v>
+      </c>
+      <c r="E501" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F501" s="14">
         <v>2021</v>
       </c>
-      <c r="G501" s="56" t="s">
+      <c r="G501" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H501" s="56">
-        <v>2</v>
-      </c>
-      <c r="I501" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="J501" s="56">
+      <c r="H501" s="14">
+        <v>2</v>
+      </c>
+      <c r="I501" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J501" s="14">
         <v>2021</v>
       </c>
-      <c r="K501" s="68">
+      <c r="K501" s="16">
         <v>11115573</v>
       </c>
-      <c r="L501" s="25">
+      <c r="L501" s="16">
         <v>8235003.6000000015</v>
       </c>
-      <c r="M501" s="25">
+      <c r="M501" s="16">
         <v>2426627.8200000003</v>
       </c>
-      <c r="N501" s="25">
+      <c r="N501" s="16">
         <v>453941.58000000013</v>
       </c>
-      <c r="O501" s="25">
-        <v>0</v>
-      </c>
-      <c r="P501" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q501" s="25">
+      <c r="O501" s="16">
+        <v>0</v>
+      </c>
+      <c r="P501" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q501" s="16">
         <v>453941.58000000013</v>
       </c>
-      <c r="R501" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="S501" s="83" t="s">
+      <c r="R501" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="S501" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="U501" s="56" t="s">
+      <c r="U501" s="46" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="502" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="4" t="s">
+      <c r="A502" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B502" s="44">
+      <c r="B502" s="14">
         <v>105</v>
       </c>
-      <c r="C502" s="44" t="s">
+      <c r="C502" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D502" s="4">
-        <v>2</v>
-      </c>
-      <c r="E502" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F502" s="4">
+      <c r="D502" s="14">
+        <v>2</v>
+      </c>
+      <c r="E502" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F502" s="14">
         <v>2021</v>
       </c>
-      <c r="G502" s="4" t="s">
+      <c r="G502" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H502" s="4">
-        <v>2</v>
-      </c>
-      <c r="I502" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J502" s="4">
+      <c r="H502" s="14">
+        <v>2</v>
+      </c>
+      <c r="I502" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J502" s="14">
         <v>2021</v>
       </c>
-      <c r="K502" s="49">
+      <c r="K502" s="16">
         <v>1319425</v>
       </c>
       <c r="L502" s="16">
@@ -30244,37 +30118,37 @@
       </c>
     </row>
     <row r="503" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A503" s="4" t="s">
+      <c r="A503" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B503" s="44">
+      <c r="B503" s="14">
         <v>94</v>
       </c>
-      <c r="C503" s="46" t="s">
+      <c r="C503" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D503" s="4">
-        <v>2</v>
-      </c>
-      <c r="E503" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F503" s="4">
+      <c r="D503" s="14">
+        <v>2</v>
+      </c>
+      <c r="E503" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F503" s="14">
         <v>2021</v>
       </c>
-      <c r="G503" s="4" t="s">
+      <c r="G503" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H503" s="4">
-        <v>2</v>
-      </c>
-      <c r="I503" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J503" s="4">
+      <c r="H503" s="14">
+        <v>2</v>
+      </c>
+      <c r="I503" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J503" s="14">
         <v>2021</v>
       </c>
-      <c r="K503" s="49">
+      <c r="K503" s="16">
         <v>30955204</v>
       </c>
       <c r="L503" s="16">
@@ -30306,37 +30180,37 @@
       </c>
     </row>
     <row r="504" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A504" s="4" t="s">
+      <c r="A504" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B504" s="44">
+      <c r="B504" s="14">
         <v>144</v>
       </c>
-      <c r="C504" s="46" t="s">
+      <c r="C504" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D504" s="4">
-        <v>2</v>
-      </c>
-      <c r="E504" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F504" s="4">
+      <c r="D504" s="14">
+        <v>2</v>
+      </c>
+      <c r="E504" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F504" s="14">
         <v>2021</v>
       </c>
-      <c r="G504" s="4" t="s">
+      <c r="G504" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H504" s="4">
-        <v>2</v>
-      </c>
-      <c r="I504" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J504" s="4">
+      <c r="H504" s="14">
+        <v>2</v>
+      </c>
+      <c r="I504" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J504" s="14">
         <v>2021</v>
       </c>
-      <c r="K504" s="49">
+      <c r="K504" s="16">
         <v>4714178</v>
       </c>
       <c r="L504" s="16">
@@ -30368,37 +30242,37 @@
       </c>
     </row>
     <row r="505" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A505" s="4" t="s">
+      <c r="A505" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B505" s="44">
+      <c r="B505" s="14">
         <v>159</v>
       </c>
-      <c r="C505" s="46" t="s">
+      <c r="C505" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D505" s="4">
-        <v>2</v>
-      </c>
-      <c r="E505" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F505" s="4">
+      <c r="D505" s="14">
+        <v>2</v>
+      </c>
+      <c r="E505" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F505" s="14">
         <v>2021</v>
       </c>
-      <c r="G505" s="4" t="s">
+      <c r="G505" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H505" s="4">
-        <v>2</v>
-      </c>
-      <c r="I505" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J505" s="4">
+      <c r="H505" s="14">
+        <v>2</v>
+      </c>
+      <c r="I505" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J505" s="14">
         <v>2021</v>
       </c>
-      <c r="K505" s="49">
+      <c r="K505" s="16">
         <v>4271196.9999999991</v>
       </c>
       <c r="L505" s="16">
@@ -30433,37 +30307,37 @@
       </c>
     </row>
     <row r="506" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A506" s="4" t="s">
+      <c r="A506" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B506" s="44">
+      <c r="B506" s="14">
         <v>155</v>
       </c>
-      <c r="C506" s="46" t="s">
+      <c r="C506" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D506" s="4">
-        <v>2</v>
-      </c>
-      <c r="E506" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F506" s="4">
+      <c r="D506" s="14">
+        <v>2</v>
+      </c>
+      <c r="E506" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F506" s="14">
         <v>2021</v>
       </c>
-      <c r="G506" s="4" t="s">
+      <c r="G506" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H506" s="4">
-        <v>2</v>
-      </c>
-      <c r="I506" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J506" s="4">
+      <c r="H506" s="14">
+        <v>2</v>
+      </c>
+      <c r="I506" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J506" s="14">
         <v>2021</v>
       </c>
-      <c r="K506" s="49">
+      <c r="K506" s="16">
         <v>21112001</v>
       </c>
       <c r="L506" s="16">
@@ -30495,37 +30369,37 @@
       </c>
     </row>
     <row r="507" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="4" t="s">
+      <c r="A507" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B507" s="44">
+      <c r="B507" s="14">
         <v>181</v>
       </c>
-      <c r="C507" s="46" t="s">
+      <c r="C507" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D507" s="4">
-        <v>2</v>
-      </c>
-      <c r="E507" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F507" s="4">
+      <c r="D507" s="14">
+        <v>2</v>
+      </c>
+      <c r="E507" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F507" s="14">
         <v>2021</v>
       </c>
-      <c r="G507" s="4" t="s">
+      <c r="G507" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H507" s="4">
-        <v>2</v>
-      </c>
-      <c r="I507" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J507" s="4">
+      <c r="H507" s="14">
+        <v>2</v>
+      </c>
+      <c r="I507" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J507" s="14">
         <v>2021</v>
       </c>
-      <c r="K507" s="77">
+      <c r="K507" s="16">
         <v>22752775</v>
       </c>
       <c r="L507" s="16">
@@ -30560,37 +30434,37 @@
       </c>
     </row>
     <row r="508" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="4" t="s">
+      <c r="A508" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B508" s="44">
+      <c r="B508" s="14">
         <v>182</v>
       </c>
-      <c r="C508" s="46" t="s">
+      <c r="C508" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D508" s="4">
-        <v>2</v>
-      </c>
-      <c r="E508" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F508" s="4">
+      <c r="D508" s="14">
+        <v>2</v>
+      </c>
+      <c r="E508" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F508" s="14">
         <v>2021</v>
       </c>
-      <c r="G508" s="4" t="s">
+      <c r="G508" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H508" s="4">
-        <v>2</v>
-      </c>
-      <c r="I508" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J508" s="4">
+      <c r="H508" s="14">
+        <v>2</v>
+      </c>
+      <c r="I508" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J508" s="14">
         <v>2021</v>
       </c>
-      <c r="K508" s="49">
+      <c r="K508" s="16">
         <v>99161438.162641436</v>
       </c>
       <c r="L508" s="16">
@@ -30622,37 +30496,37 @@
       </c>
     </row>
     <row r="509" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="4" t="s">
+      <c r="A509" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B509" s="44">
+      <c r="B509" s="14">
         <v>217</v>
       </c>
-      <c r="C509" s="46" t="s">
+      <c r="C509" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D509" s="4">
-        <v>2</v>
-      </c>
-      <c r="E509" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F509" s="4">
+      <c r="D509" s="14">
+        <v>2</v>
+      </c>
+      <c r="E509" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F509" s="14">
         <v>2021</v>
       </c>
-      <c r="G509" s="4" t="s">
+      <c r="G509" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H509" s="4">
-        <v>2</v>
-      </c>
-      <c r="I509" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J509" s="4">
+      <c r="H509" s="14">
+        <v>2</v>
+      </c>
+      <c r="I509" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J509" s="14">
         <v>2021</v>
       </c>
-      <c r="K509" s="49">
+      <c r="K509" s="16">
         <v>17215426</v>
       </c>
       <c r="L509" s="16">
@@ -30687,37 +30561,37 @@
       </c>
     </row>
     <row r="510" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="4" t="s">
+      <c r="A510" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B510" s="44">
+      <c r="B510" s="14">
         <v>221</v>
       </c>
-      <c r="C510" s="46" t="s">
+      <c r="C510" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D510" s="4">
-        <v>2</v>
-      </c>
-      <c r="E510" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F510" s="4">
+      <c r="D510" s="14">
+        <v>2</v>
+      </c>
+      <c r="E510" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F510" s="14">
         <v>2021</v>
       </c>
-      <c r="G510" s="4" t="s">
+      <c r="G510" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H510" s="4">
-        <v>2</v>
-      </c>
-      <c r="I510" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J510" s="4">
+      <c r="H510" s="14">
+        <v>2</v>
+      </c>
+      <c r="I510" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J510" s="14">
         <v>2021</v>
       </c>
-      <c r="K510" s="49">
+      <c r="K510" s="16">
         <v>8100318</v>
       </c>
       <c r="L510" s="16">
@@ -30749,37 +30623,37 @@
       </c>
     </row>
     <row r="511" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A511" s="4" t="s">
+      <c r="A511" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B511" s="44">
+      <c r="B511" s="14">
         <v>50</v>
       </c>
-      <c r="C511" s="46" t="s">
+      <c r="C511" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D511" s="4">
-        <v>2</v>
-      </c>
-      <c r="E511" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F511" s="4">
+      <c r="D511" s="14">
+        <v>2</v>
+      </c>
+      <c r="E511" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F511" s="14">
         <v>2021</v>
       </c>
-      <c r="G511" s="4" t="s">
+      <c r="G511" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H511" s="4">
-        <v>2</v>
-      </c>
-      <c r="I511" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J511" s="4">
+      <c r="H511" s="14">
+        <v>2</v>
+      </c>
+      <c r="I511" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J511" s="14">
         <v>2021</v>
       </c>
-      <c r="K511" s="49">
+      <c r="K511" s="16">
         <v>15375866</v>
       </c>
       <c r="L511" s="16">
@@ -30811,37 +30685,37 @@
       </c>
     </row>
     <row r="512" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="4" t="s">
+      <c r="A512" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B512" s="44">
+      <c r="B512" s="14">
         <v>243</v>
       </c>
-      <c r="C512" s="46" t="s">
+      <c r="C512" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D512" s="4">
-        <v>2</v>
-      </c>
-      <c r="E512" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F512" s="4">
+      <c r="D512" s="14">
+        <v>2</v>
+      </c>
+      <c r="E512" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F512" s="14">
         <v>2021</v>
       </c>
-      <c r="G512" s="4" t="s">
+      <c r="G512" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H512" s="4">
-        <v>2</v>
-      </c>
-      <c r="I512" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J512" s="4">
+      <c r="H512" s="14">
+        <v>2</v>
+      </c>
+      <c r="I512" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J512" s="14">
         <v>2021</v>
       </c>
-      <c r="K512" s="49">
+      <c r="K512" s="16">
         <v>5932378</v>
       </c>
       <c r="L512" s="16">
@@ -30873,34 +30747,34 @@
       </c>
     </row>
     <row r="513" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="4" t="s">
+      <c r="A513" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B513" s="44">
+      <c r="B513" s="14">
         <v>29</v>
       </c>
-      <c r="C513" s="45" t="s">
+      <c r="C513" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D513" s="4">
-        <v>2</v>
-      </c>
-      <c r="E513" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F513" s="4">
+      <c r="D513" s="14">
+        <v>2</v>
+      </c>
+      <c r="E513" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F513" s="14">
         <v>2021</v>
       </c>
-      <c r="G513" s="4" t="s">
+      <c r="G513" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H513" s="4">
+      <c r="H513" s="14">
         <v>3</v>
       </c>
-      <c r="I513" s="4" t="s">
+      <c r="I513" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J513" s="4">
+      <c r="J513" s="14">
         <v>2021</v>
       </c>
       <c r="K513" s="16">
@@ -30935,34 +30809,34 @@
       </c>
     </row>
     <row r="514" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A514" s="4" t="s">
+      <c r="A514" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B514" s="44">
+      <c r="B514" s="14">
         <v>42</v>
       </c>
-      <c r="C514" s="46" t="s">
+      <c r="C514" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D514" s="4">
-        <v>2</v>
-      </c>
-      <c r="E514" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F514" s="4">
+      <c r="D514" s="14">
+        <v>2</v>
+      </c>
+      <c r="E514" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F514" s="14">
         <v>2021</v>
       </c>
-      <c r="G514" s="4" t="s">
+      <c r="G514" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H514" s="4">
+      <c r="H514" s="14">
         <v>3</v>
       </c>
-      <c r="I514" s="4" t="s">
+      <c r="I514" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J514" s="4">
+      <c r="J514" s="14">
         <v>2021</v>
       </c>
       <c r="K514" s="16">
@@ -30997,34 +30871,34 @@
       </c>
     </row>
     <row r="515" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="4" t="s">
+      <c r="A515" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B515" s="44">
+      <c r="B515" s="14">
         <v>66</v>
       </c>
-      <c r="C515" s="46" t="s">
+      <c r="C515" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D515" s="4">
-        <v>2</v>
-      </c>
-      <c r="E515" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F515" s="4">
+      <c r="D515" s="14">
+        <v>2</v>
+      </c>
+      <c r="E515" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F515" s="14">
         <v>2021</v>
       </c>
-      <c r="G515" s="4" t="s">
+      <c r="G515" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H515" s="4">
+      <c r="H515" s="14">
         <v>3</v>
       </c>
-      <c r="I515" s="4" t="s">
+      <c r="I515" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J515" s="4">
+      <c r="J515" s="14">
         <v>2021</v>
       </c>
       <c r="K515" s="16">
@@ -31059,34 +30933,34 @@
       </c>
     </row>
     <row r="516" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="4" t="s">
+      <c r="A516" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B516" s="44">
+      <c r="B516" s="14">
         <v>90</v>
       </c>
-      <c r="C516" s="46" t="s">
+      <c r="C516" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D516" s="4">
-        <v>2</v>
-      </c>
-      <c r="E516" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F516" s="4">
+      <c r="D516" s="14">
+        <v>2</v>
+      </c>
+      <c r="E516" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F516" s="14">
         <v>2021</v>
       </c>
-      <c r="G516" s="4" t="s">
+      <c r="G516" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H516" s="4">
+      <c r="H516" s="14">
         <v>3</v>
       </c>
-      <c r="I516" s="4" t="s">
+      <c r="I516" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J516" s="4">
+      <c r="J516" s="14">
         <v>2021</v>
       </c>
       <c r="K516" s="16">
@@ -31120,97 +30994,97 @@
         <v>63</v>
       </c>
     </row>
-    <row r="517" spans="1:21" s="56" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="56" t="s">
+    <row r="517" spans="1:21" s="46" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B517" s="81">
+      <c r="B517" s="14">
         <v>106</v>
       </c>
-      <c r="C517" s="82" t="s">
+      <c r="C517" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D517" s="56">
-        <v>2</v>
-      </c>
-      <c r="E517" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="F517" s="56">
+      <c r="D517" s="14">
+        <v>2</v>
+      </c>
+      <c r="E517" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F517" s="14">
         <v>2021</v>
       </c>
-      <c r="G517" s="56" t="s">
+      <c r="G517" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H517" s="56">
+      <c r="H517" s="14">
         <v>3</v>
       </c>
-      <c r="I517" s="56" t="s">
+      <c r="I517" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J517" s="56">
+      <c r="J517" s="14">
         <v>2021</v>
       </c>
-      <c r="K517" s="25">
+      <c r="K517" s="16">
         <v>11115573</v>
       </c>
-      <c r="L517" s="25">
+      <c r="L517" s="16">
         <v>8124709.3299999991</v>
       </c>
-      <c r="M517" s="25">
+      <c r="M517" s="16">
         <v>2572410.3000000007</v>
       </c>
-      <c r="N517" s="25">
+      <c r="N517" s="16">
         <v>418453.36999999994</v>
       </c>
-      <c r="O517" s="25">
-        <v>0</v>
-      </c>
-      <c r="P517" s="25">
-        <v>0</v>
-      </c>
-      <c r="Q517" s="25">
+      <c r="O517" s="16">
+        <v>0</v>
+      </c>
+      <c r="P517" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q517" s="16">
         <v>418453.36999999994</v>
       </c>
-      <c r="R517" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="S517" s="56" t="s">
+      <c r="R517" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="S517" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="U517" s="56" t="s">
+      <c r="U517" s="46" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="518" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="4" t="s">
+      <c r="A518" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B518" s="44">
+      <c r="B518" s="14">
         <v>105</v>
       </c>
-      <c r="C518" s="44" t="s">
+      <c r="C518" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D518" s="4">
-        <v>2</v>
-      </c>
-      <c r="E518" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F518" s="4">
+      <c r="D518" s="14">
+        <v>2</v>
+      </c>
+      <c r="E518" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F518" s="14">
         <v>2021</v>
       </c>
-      <c r="G518" s="4" t="s">
+      <c r="G518" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H518" s="4">
+      <c r="H518" s="14">
         <v>3</v>
       </c>
-      <c r="I518" s="4" t="s">
+      <c r="I518" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J518" s="4">
+      <c r="J518" s="14">
         <v>2021</v>
       </c>
       <c r="K518" s="16">
@@ -31245,34 +31119,34 @@
       </c>
     </row>
     <row r="519" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="4" t="s">
+      <c r="A519" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B519" s="44">
+      <c r="B519" s="14">
         <v>94</v>
       </c>
-      <c r="C519" s="46" t="s">
+      <c r="C519" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D519" s="4">
-        <v>2</v>
-      </c>
-      <c r="E519" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F519" s="4">
+      <c r="D519" s="14">
+        <v>2</v>
+      </c>
+      <c r="E519" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F519" s="14">
         <v>2021</v>
       </c>
-      <c r="G519" s="4" t="s">
+      <c r="G519" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H519" s="4">
+      <c r="H519" s="14">
         <v>3</v>
       </c>
-      <c r="I519" s="4" t="s">
+      <c r="I519" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J519" s="4">
+      <c r="J519" s="14">
         <v>2021</v>
       </c>
       <c r="K519" s="16">
@@ -31307,34 +31181,34 @@
       </c>
     </row>
     <row r="520" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="4" t="s">
+      <c r="A520" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B520" s="44">
+      <c r="B520" s="14">
         <v>144</v>
       </c>
-      <c r="C520" s="46" t="s">
+      <c r="C520" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D520" s="4">
-        <v>2</v>
-      </c>
-      <c r="E520" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F520" s="4">
+      <c r="D520" s="14">
+        <v>2</v>
+      </c>
+      <c r="E520" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F520" s="14">
         <v>2021</v>
       </c>
-      <c r="G520" s="4" t="s">
+      <c r="G520" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H520" s="4">
+      <c r="H520" s="14">
         <v>3</v>
       </c>
-      <c r="I520" s="4" t="s">
+      <c r="I520" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J520" s="4">
+      <c r="J520" s="14">
         <v>2021</v>
       </c>
       <c r="K520" s="16">
@@ -31369,37 +31243,37 @@
       </c>
     </row>
     <row r="521" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="4" t="s">
+      <c r="A521" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B521" s="44">
+      <c r="B521" s="14">
         <v>159</v>
       </c>
-      <c r="C521" s="46" t="s">
+      <c r="C521" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D521" s="4">
-        <v>2</v>
-      </c>
-      <c r="E521" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F521" s="4">
+      <c r="D521" s="14">
+        <v>2</v>
+      </c>
+      <c r="E521" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F521" s="14">
         <v>2021</v>
       </c>
-      <c r="G521" s="4" t="s">
+      <c r="G521" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H521" s="4">
+      <c r="H521" s="14">
         <v>3</v>
       </c>
-      <c r="I521" s="4" t="s">
+      <c r="I521" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J521" s="4">
+      <c r="J521" s="14">
         <v>2021</v>
       </c>
-      <c r="K521" s="49">
+      <c r="K521" s="16">
         <v>4271196.9999999991</v>
       </c>
       <c r="L521" s="16">
@@ -31434,34 +31308,34 @@
       </c>
     </row>
     <row r="522" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="4" t="s">
+      <c r="A522" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B522" s="44">
+      <c r="B522" s="14">
         <v>155</v>
       </c>
-      <c r="C522" s="46" t="s">
+      <c r="C522" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D522" s="4">
-        <v>2</v>
-      </c>
-      <c r="E522" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F522" s="4">
+      <c r="D522" s="14">
+        <v>2</v>
+      </c>
+      <c r="E522" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F522" s="14">
         <v>2021</v>
       </c>
-      <c r="G522" s="4" t="s">
+      <c r="G522" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H522" s="4">
+      <c r="H522" s="14">
         <v>3</v>
       </c>
-      <c r="I522" s="4" t="s">
+      <c r="I522" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J522" s="4">
+      <c r="J522" s="14">
         <v>2021</v>
       </c>
       <c r="K522" s="16">
@@ -31499,34 +31373,34 @@
       </c>
     </row>
     <row r="523" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="4" t="s">
+      <c r="A523" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B523" s="44">
+      <c r="B523" s="14">
         <v>181</v>
       </c>
-      <c r="C523" s="46" t="s">
+      <c r="C523" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D523" s="4">
-        <v>2</v>
-      </c>
-      <c r="E523" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F523" s="4">
+      <c r="D523" s="14">
+        <v>2</v>
+      </c>
+      <c r="E523" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F523" s="14">
         <v>2021</v>
       </c>
-      <c r="G523" s="4" t="s">
+      <c r="G523" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H523" s="4">
+      <c r="H523" s="14">
         <v>3</v>
       </c>
-      <c r="I523" s="4" t="s">
+      <c r="I523" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J523" s="4">
+      <c r="J523" s="14">
         <v>2021</v>
       </c>
       <c r="K523" s="16">
@@ -31564,34 +31438,34 @@
       </c>
     </row>
     <row r="524" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="4" t="s">
+      <c r="A524" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B524" s="44">
+      <c r="B524" s="14">
         <v>182</v>
       </c>
-      <c r="C524" s="46" t="s">
+      <c r="C524" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="D524" s="4">
-        <v>2</v>
-      </c>
-      <c r="E524" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F524" s="4">
+      <c r="D524" s="14">
+        <v>2</v>
+      </c>
+      <c r="E524" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F524" s="14">
         <v>2021</v>
       </c>
-      <c r="G524" s="4" t="s">
+      <c r="G524" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H524" s="4">
+      <c r="H524" s="14">
         <v>3</v>
       </c>
-      <c r="I524" s="4" t="s">
+      <c r="I524" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J524" s="4">
+      <c r="J524" s="14">
         <v>2021</v>
       </c>
       <c r="K524" s="16">
@@ -31626,34 +31500,34 @@
       </c>
     </row>
     <row r="525" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="4" t="s">
+      <c r="A525" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B525" s="44">
+      <c r="B525" s="14">
         <v>217</v>
       </c>
-      <c r="C525" s="46" t="s">
+      <c r="C525" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D525" s="4">
-        <v>2</v>
-      </c>
-      <c r="E525" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F525" s="4">
+      <c r="D525" s="14">
+        <v>2</v>
+      </c>
+      <c r="E525" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F525" s="14">
         <v>2021</v>
       </c>
-      <c r="G525" s="4" t="s">
+      <c r="G525" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H525" s="4">
+      <c r="H525" s="14">
         <v>3</v>
       </c>
-      <c r="I525" s="4" t="s">
+      <c r="I525" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J525" s="4">
+      <c r="J525" s="14">
         <v>2021</v>
       </c>
       <c r="K525" s="16">
@@ -31691,34 +31565,34 @@
       </c>
     </row>
     <row r="526" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="4" t="s">
+      <c r="A526" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B526" s="44">
+      <c r="B526" s="14">
         <v>221</v>
       </c>
-      <c r="C526" s="46" t="s">
+      <c r="C526" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D526" s="4">
-        <v>2</v>
-      </c>
-      <c r="E526" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F526" s="4">
+      <c r="D526" s="14">
+        <v>2</v>
+      </c>
+      <c r="E526" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F526" s="14">
         <v>2021</v>
       </c>
-      <c r="G526" s="4" t="s">
+      <c r="G526" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H526" s="4">
+      <c r="H526" s="14">
         <v>3</v>
       </c>
-      <c r="I526" s="4" t="s">
+      <c r="I526" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J526" s="4">
+      <c r="J526" s="14">
         <v>2021</v>
       </c>
       <c r="K526" s="16">
@@ -31753,34 +31627,34 @@
       </c>
     </row>
     <row r="527" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="4" t="s">
+      <c r="A527" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="B527" s="44">
+      <c r="B527" s="14">
         <v>50</v>
       </c>
-      <c r="C527" s="46" t="s">
+      <c r="C527" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D527" s="4">
-        <v>2</v>
-      </c>
-      <c r="E527" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F527" s="4">
+      <c r="D527" s="14">
+        <v>2</v>
+      </c>
+      <c r="E527" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F527" s="14">
         <v>2021</v>
       </c>
-      <c r="G527" s="4" t="s">
+      <c r="G527" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H527" s="4">
+      <c r="H527" s="14">
         <v>3</v>
       </c>
-      <c r="I527" s="4" t="s">
+      <c r="I527" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J527" s="4">
+      <c r="J527" s="14">
         <v>2021</v>
       </c>
       <c r="K527" s="16">
@@ -31789,7 +31663,7 @@
       <c r="L527" s="16">
         <v>10294233.680000002</v>
       </c>
-      <c r="M527" s="68">
+      <c r="M527" s="16">
         <v>3303002.53</v>
       </c>
       <c r="N527" s="16">
@@ -31815,34 +31689,34 @@
       </c>
     </row>
     <row r="528" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="4" t="s">
+      <c r="A528" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B528" s="44">
+      <c r="B528" s="14">
         <v>243</v>
       </c>
-      <c r="C528" s="46" t="s">
+      <c r="C528" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D528" s="4">
-        <v>2</v>
-      </c>
-      <c r="E528" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F528" s="4">
+      <c r="D528" s="14">
+        <v>2</v>
+      </c>
+      <c r="E528" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F528" s="14">
         <v>2021</v>
       </c>
-      <c r="G528" s="4" t="s">
+      <c r="G528" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H528" s="4">
+      <c r="H528" s="14">
         <v>3</v>
       </c>
-      <c r="I528" s="4" t="s">
+      <c r="I528" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J528" s="4">
+      <c r="J528" s="14">
         <v>2021</v>
       </c>
       <c r="K528" s="16">
@@ -31877,34 +31751,34 @@
       </c>
     </row>
     <row r="529" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="27" t="s">
+      <c r="A529" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B529" s="27">
+      <c r="B529" s="14">
         <v>45</v>
       </c>
-      <c r="C529" s="4" t="s">
+      <c r="C529" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D529" s="4">
-        <v>2</v>
-      </c>
-      <c r="E529" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F529" s="4">
+      <c r="D529" s="14">
+        <v>2</v>
+      </c>
+      <c r="E529" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F529" s="14">
         <v>2021</v>
       </c>
-      <c r="G529" s="4" t="s">
+      <c r="G529" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="H529" s="4">
-        <v>2</v>
-      </c>
-      <c r="I529" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="J529" s="4">
+      <c r="H529" s="14">
+        <v>2</v>
+      </c>
+      <c r="I529" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J529" s="14">
         <v>2021</v>
       </c>
       <c r="K529" s="16">
@@ -31939,55 +31813,55 @@
       </c>
     </row>
     <row r="530" spans="1:21" s="14" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="27" t="s">
+      <c r="A530" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B530" s="27">
+      <c r="B530" s="14">
         <v>45</v>
       </c>
-      <c r="C530" s="4" t="s">
+      <c r="C530" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D530" s="4">
-        <v>2</v>
-      </c>
-      <c r="E530" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="F530" s="4">
+      <c r="D530" s="14">
+        <v>2</v>
+      </c>
+      <c r="E530" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="F530" s="14">
         <v>2021</v>
       </c>
-      <c r="G530" s="4" t="s">
+      <c r="G530" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H530" s="4">
+      <c r="H530" s="14">
         <v>3</v>
       </c>
-      <c r="I530" s="4" t="s">
+      <c r="I530" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J530" s="4">
+      <c r="J530" s="14">
         <v>2021</v>
       </c>
       <c r="K530" s="16">
         <v>25931267.996289276</v>
       </c>
-      <c r="L530" s="50">
+      <c r="L530" s="16">
         <v>19493118.807439111</v>
       </c>
-      <c r="M530" s="50">
+      <c r="M530" s="16">
         <v>4517347.5301865209</v>
       </c>
-      <c r="N530" s="50">
+      <c r="N530" s="16">
         <v>1700200.6144950867</v>
       </c>
-      <c r="O530" s="50">
+      <c r="O530" s="16">
         <v>220601.04416854566</v>
       </c>
-      <c r="P530" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q530" s="51">
+      <c r="P530" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q530" s="16">
         <v>1920801.6586636326</v>
       </c>
       <c r="R530" s="6" t="s">
@@ -32001,50 +31875,50 @@
         <v>63</v>
       </c>
     </row>
-    <row r="531" spans="1:21" s="78" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="78" t="s">
+    <row r="531" spans="1:21" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A531" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B531" s="78">
+      <c r="B531" s="14">
         <v>49</v>
       </c>
-      <c r="C531" s="78" t="s">
+      <c r="C531" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D531" s="78">
-        <v>1</v>
-      </c>
-      <c r="E531" s="78" t="s">
-        <v>114</v>
-      </c>
-      <c r="F531" s="78">
+      <c r="D531" s="14">
+        <v>1</v>
+      </c>
+      <c r="E531" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="F531" s="14">
         <v>2020</v>
       </c>
-      <c r="G531" s="78" t="s">
+      <c r="G531" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="H531" s="78">
-        <v>2</v>
-      </c>
-      <c r="I531" s="78" t="s">
-        <v>115</v>
-      </c>
-      <c r="J531" s="80">
+      <c r="H531" s="14">
+        <v>2</v>
+      </c>
+      <c r="I531" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="J531" s="14">
         <v>2021</v>
       </c>
-      <c r="K531" s="47">
+      <c r="K531" s="16">
         <v>4744003</v>
       </c>
-      <c r="L531" s="48">
+      <c r="L531" s="16">
         <v>1058613</v>
       </c>
-      <c r="M531" s="48">
+      <c r="M531" s="16">
         <v>1756781</v>
       </c>
-      <c r="N531" s="48">
+      <c r="N531" s="16">
         <v>1520732</v>
       </c>
-      <c r="O531" s="48">
+      <c r="O531" s="16">
         <v>407877</v>
       </c>
       <c r="P531" s="16">
@@ -32053,29 +31927,45 @@
       <c r="Q531" s="16">
         <v>1928609</v>
       </c>
-      <c r="R531" s="78" t="s">
+      <c r="R531" s="58" t="s">
         <v>26</v>
       </c>
       <c r="S531" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="U531" s="78" t="s">
+      <c r="U531" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="532" spans="1:21" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L532" s="53" t="s">
+      <c r="A532" s="14"/>
+      <c r="B532" s="14"/>
+      <c r="C532" s="14"/>
+      <c r="D532" s="14"/>
+      <c r="E532" s="14"/>
+      <c r="F532" s="14"/>
+      <c r="G532" s="14"/>
+      <c r="H532" s="14"/>
+      <c r="I532" s="14"/>
+      <c r="J532" s="14"/>
+      <c r="K532" s="16"/>
+      <c r="L532" s="16" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="533" spans="1:21" s="56" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="56" t="s">
+      <c r="M532" s="16"/>
+      <c r="N532" s="16"/>
+      <c r="O532" s="16"/>
+      <c r="P532" s="16"/>
+      <c r="Q532" s="16"/>
+    </row>
+    <row r="533" spans="1:21" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A533" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B533" s="56">
+      <c r="B533" s="14">
         <v>49</v>
       </c>
-      <c r="C533" s="56" t="s">
+      <c r="C533" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D533" s="14">
@@ -32084,49 +31974,49 @@
       <c r="E533" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="F533" s="69">
+      <c r="F533" s="14">
         <v>2021</v>
       </c>
-      <c r="G533" s="69" t="s">
+      <c r="G533" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H533" s="56">
-        <v>2</v>
-      </c>
-      <c r="I533" s="69" t="s">
+      <c r="H533" s="14">
+        <v>2</v>
+      </c>
+      <c r="I533" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="J533" s="69">
+      <c r="J533" s="14">
         <v>2021</v>
       </c>
-      <c r="K533" s="73">
+      <c r="K533" s="16">
         <v>4879385</v>
       </c>
-      <c r="L533" s="74">
+      <c r="L533" s="16">
         <v>998450</v>
       </c>
-      <c r="M533" s="74">
+      <c r="M533" s="16">
         <v>1591200</v>
       </c>
-      <c r="N533" s="75">
+      <c r="N533" s="16">
         <v>1657212</v>
       </c>
-      <c r="O533" s="76">
+      <c r="O533" s="16">
         <v>632524</v>
       </c>
       <c r="P533" s="16">
         <v>0</v>
       </c>
-      <c r="Q533" s="25">
+      <c r="Q533" s="16">
         <v>2289736</v>
       </c>
-      <c r="R533" s="56" t="s">
+      <c r="R533" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="S533" s="56" t="s">
+      <c r="S533" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="U533" s="56" t="s">
+      <c r="U533" s="46" t="s">
         <v>63</v>
       </c>
     </row>
@@ -32599,10 +32489,10 @@
     <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AN534" xr:uid="{4A94B884-F025-45F8-8A74-6143E218625F}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:AN534" xr:uid="{CFAE4FB7-8114-4446-ABDB-3A64C7B392EE}">
+    <filterColumn colId="2">
       <filters>
-        <filter val="GIN"/>
+        <filter val="Central African Republic"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -32619,4 +32509,457 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7A907-9D09-4F2B-9B3B-260B26854215}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>21706163.294491712</v>
+      </c>
+      <c r="B2">
+        <v>15884068.240388989</v>
+      </c>
+      <c r="C2">
+        <v>3745776.0924206283</v>
+      </c>
+      <c r="D2">
+        <v>1898954.9099253495</v>
+      </c>
+      <c r="E2">
+        <v>177364.05175674902</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>2076318.9616820987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>12757736</v>
+      </c>
+      <c r="B3">
+        <v>10101534.35</v>
+      </c>
+      <c r="C3">
+        <v>2168911.4999999995</v>
+      </c>
+      <c r="D3">
+        <v>443748.59</v>
+      </c>
+      <c r="E3">
+        <v>43541.56</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>487290.15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2455839</v>
+      </c>
+      <c r="B4">
+        <v>2025124.15</v>
+      </c>
+      <c r="C4">
+        <v>365304.80000000005</v>
+      </c>
+      <c r="D4">
+        <v>65410.05</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>65410.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>11115573</v>
+      </c>
+      <c r="B5">
+        <v>8235003.6000000015</v>
+      </c>
+      <c r="C5">
+        <v>2426627.8200000003</v>
+      </c>
+      <c r="D5">
+        <v>453941.58000000013</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>453941.58000000013</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1319425</v>
+      </c>
+      <c r="B6">
+        <v>1085967.33</v>
+      </c>
+      <c r="C6">
+        <v>165330.52000000002</v>
+      </c>
+      <c r="D6">
+        <v>68127.150000000009</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>68127.150000000009</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30955204</v>
+      </c>
+      <c r="B7">
+        <v>26542200.030000005</v>
+      </c>
+      <c r="C7">
+        <v>3450101.8199999989</v>
+      </c>
+      <c r="D7">
+        <v>935221.47</v>
+      </c>
+      <c r="E7">
+        <v>27680.680000000004</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>962902.14999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4714178</v>
+      </c>
+      <c r="B8">
+        <v>2541791.79</v>
+      </c>
+      <c r="C8">
+        <v>1399512.81</v>
+      </c>
+      <c r="D8">
+        <v>672601.89000000013</v>
+      </c>
+      <c r="E8">
+        <v>100271.51000000001</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>772873.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4271196.9999999991</v>
+      </c>
+      <c r="B9">
+        <v>3333129.3046670449</v>
+      </c>
+      <c r="C9">
+        <v>721234.08150310267</v>
+      </c>
+      <c r="D9">
+        <v>216833.61382985231</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>216833.61382985231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>21112001</v>
+      </c>
+      <c r="B10">
+        <v>16988771.110000003</v>
+      </c>
+      <c r="C10">
+        <v>3256239.4000000013</v>
+      </c>
+      <c r="D10">
+        <v>837143.69000000006</v>
+      </c>
+      <c r="E10">
+        <v>29846.800000000003</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>866990.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>22752775</v>
+      </c>
+      <c r="B11">
+        <v>16695949.120000007</v>
+      </c>
+      <c r="C11">
+        <v>4435612.5300000012</v>
+      </c>
+      <c r="D11">
+        <v>1519342.3300000003</v>
+      </c>
+      <c r="E11">
+        <v>101871.02</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1621213.3500000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>99161438.162641436</v>
+      </c>
+      <c r="B12">
+        <v>66919551.373129174</v>
+      </c>
+      <c r="C12">
+        <v>23045764.481871821</v>
+      </c>
+      <c r="D12">
+        <v>8702777.117740443</v>
+      </c>
+      <c r="E12">
+        <v>493345.1899</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>9196122.3076404426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>17215426</v>
+      </c>
+      <c r="B13">
+        <v>14514143.5</v>
+      </c>
+      <c r="C13">
+        <v>2403219.7999999998</v>
+      </c>
+      <c r="D13">
+        <v>294265.61999999994</v>
+      </c>
+      <c r="E13">
+        <v>3797.08</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>298062.6999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>8100318</v>
+      </c>
+      <c r="B14">
+        <v>4195687.24</v>
+      </c>
+      <c r="C14">
+        <v>2403509.5799999996</v>
+      </c>
+      <c r="D14">
+        <v>1501121.1800000004</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>1501121.1800000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>15375866</v>
+      </c>
+      <c r="B15">
+        <v>11416303.459999993</v>
+      </c>
+      <c r="C15">
+        <v>2683371.8100000005</v>
+      </c>
+      <c r="D15">
+        <v>1180174.9299999997</v>
+      </c>
+      <c r="E15">
+        <v>96015.8</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1276190.7299999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5932378</v>
+      </c>
+      <c r="B16">
+        <v>4684374.84</v>
+      </c>
+      <c r="C16">
+        <v>1010069.52</v>
+      </c>
+      <c r="D16">
+        <v>236419.83999999997</v>
+      </c>
+      <c r="E16">
+        <v>1513.8</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>237933.63999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25931267.996289276</v>
+      </c>
+      <c r="B17">
+        <v>17458392.543152057</v>
+      </c>
+      <c r="C17">
+        <v>5847403.3151356969</v>
+      </c>
+      <c r="D17">
+        <v>2364913.6509211231</v>
+      </c>
+      <c r="E17">
+        <v>260558.48708039289</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>2625472.1380015155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>4744003</v>
+      </c>
+      <c r="B18" s="16">
+        <v>1058613</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1756781</v>
+      </c>
+      <c r="D18" s="16">
+        <v>1520732</v>
+      </c>
+      <c r="E18" s="16">
+        <v>407877</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>1928609</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1756781</v>
+      </c>
+      <c r="J18" s="16">
+        <v>1520732</v>
+      </c>
+      <c r="K18" s="16">
+        <v>407877</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0</v>
+      </c>
+      <c r="M18" s="16">
+        <v>1928609</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <f>SUM(G1:G18)</f>
+        <v>24655412.591153912</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>